--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H2">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.6110729568463</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N2">
-        <v>23.6110729568463</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O2">
-        <v>0.2464251172170327</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P2">
-        <v>0.2464251172170327</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q2">
-        <v>43.12764019958571</v>
+        <v>47.07022372312644</v>
       </c>
       <c r="R2">
-        <v>43.12764019958571</v>
+        <v>423.632013508138</v>
       </c>
       <c r="S2">
-        <v>0.006634868505188493</v>
+        <v>0.006510838630617472</v>
       </c>
       <c r="T2">
-        <v>0.006634868505188493</v>
+        <v>0.00651083863061747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H3">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3020186493574</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N3">
-        <v>62.3020186493574</v>
+        <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6502365342136619</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P3">
-        <v>0.6502365342136619</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q3">
-        <v>113.799955170536</v>
+        <v>124.1605718065324</v>
       </c>
       <c r="R3">
-        <v>113.799955170536</v>
+        <v>1117.445146258792</v>
       </c>
       <c r="S3">
-        <v>0.0175072815242997</v>
+        <v>0.01717411525538065</v>
       </c>
       <c r="T3">
-        <v>0.0175072815242997</v>
+        <v>0.01717411525538065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H4">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.90130111274728</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N4">
-        <v>9.90130111274728</v>
+        <v>0.248801</v>
       </c>
       <c r="O4">
-        <v>0.1033383485693055</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P4">
-        <v>0.1033383485693055</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q4">
-        <v>18.08557165863583</v>
+        <v>0.1648423008578889</v>
       </c>
       <c r="R4">
-        <v>18.08557165863583</v>
+        <v>1.483580707721</v>
       </c>
       <c r="S4">
-        <v>0.002782331452425843</v>
+        <v>2.280128572786235E-05</v>
       </c>
       <c r="T4">
-        <v>0.002782331452425843</v>
+        <v>2.280128572786234E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.6390703330436</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H5">
-        <v>56.6390703330436</v>
+        <v>5.962921</v>
       </c>
       <c r="I5">
-        <v>0.8348789132081619</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J5">
-        <v>0.8348789132081619</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.6110729568463</v>
+        <v>14.948048</v>
       </c>
       <c r="N5">
-        <v>23.6110729568463</v>
+        <v>44.844144</v>
       </c>
       <c r="O5">
-        <v>0.2464251172170327</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P5">
-        <v>0.2464251172170327</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q5">
-        <v>1337.309221841441</v>
+        <v>29.71134310940267</v>
       </c>
       <c r="R5">
-        <v>1337.309221841441</v>
+        <v>267.402087984624</v>
       </c>
       <c r="S5">
-        <v>0.2057351340493502</v>
+        <v>0.004109726812052218</v>
       </c>
       <c r="T5">
-        <v>0.2057351340493502</v>
+        <v>0.004109726812052217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H6">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.3020186493574</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N6">
-        <v>62.3020186493574</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O6">
-        <v>0.6502365342136619</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P6">
-        <v>0.6502365342136619</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q6">
-        <v>3528.728416171548</v>
+        <v>1345.42280869466</v>
       </c>
       <c r="R6">
-        <v>3528.728416171548</v>
+        <v>12108.80527825194</v>
       </c>
       <c r="S6">
-        <v>0.5428687710125438</v>
+        <v>0.1861013206329672</v>
       </c>
       <c r="T6">
-        <v>0.5428687710125438</v>
+        <v>0.1861013206329671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H7">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.90130111274728</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N7">
-        <v>9.90130111274728</v>
+        <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.1033383485693055</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P7">
-        <v>0.1033383485693055</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q7">
-        <v>560.8004901135361</v>
+        <v>3548.920146028666</v>
       </c>
       <c r="R7">
-        <v>560.8004901135361</v>
+        <v>31940.28131425799</v>
       </c>
       <c r="S7">
-        <v>0.08627500814626797</v>
+        <v>0.4908930647888005</v>
       </c>
       <c r="T7">
-        <v>0.08627500814626797</v>
+        <v>0.4908930647888003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.730166693558334</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H8">
-        <v>0.730166693558334</v>
+        <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.01076290221563071</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J8">
-        <v>0.01076290221563071</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>23.6110729568463</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N8">
-        <v>23.6110729568463</v>
+        <v>0.248801</v>
       </c>
       <c r="O8">
-        <v>0.2464251172170327</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P8">
-        <v>0.2464251172170327</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q8">
-        <v>17.24001907226506</v>
+        <v>4.711738629424556</v>
       </c>
       <c r="R8">
-        <v>17.24001907226506</v>
+        <v>42.405647664821</v>
       </c>
       <c r="S8">
-        <v>0.00265224944008226</v>
+        <v>0.0006517362242907225</v>
       </c>
       <c r="T8">
-        <v>0.00265224944008226</v>
+        <v>0.0006517362242907223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.730166693558334</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H9">
-        <v>0.730166693558334</v>
+        <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.01076290221563071</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J9">
-        <v>0.01076290221563071</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3020186493574</v>
+        <v>14.948048</v>
       </c>
       <c r="N9">
-        <v>62.3020186493574</v>
+        <v>44.844144</v>
       </c>
       <c r="O9">
-        <v>0.6502365342136619</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P9">
-        <v>0.6502365342136619</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q9">
-        <v>45.49085895921095</v>
+        <v>849.2485383430027</v>
       </c>
       <c r="R9">
-        <v>45.49085895921095</v>
+        <v>7643.236845087024</v>
       </c>
       <c r="S9">
-        <v>0.006998432234772259</v>
+        <v>0.1174695965535084</v>
       </c>
       <c r="T9">
-        <v>0.006998432234772259</v>
+        <v>0.1174695965535084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H10">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.90130111274728</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N10">
-        <v>9.90130111274728</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O10">
-        <v>0.1033383485693055</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P10">
-        <v>0.1033383485693055</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q10">
-        <v>7.229600295420134</v>
+        <v>17.76392838130022</v>
       </c>
       <c r="R10">
-        <v>7.229600295420134</v>
+        <v>159.875355431702</v>
       </c>
       <c r="S10">
-        <v>0.001112220540776197</v>
+        <v>0.002457138759671259</v>
       </c>
       <c r="T10">
-        <v>0.001112220540776197</v>
+        <v>0.002457138759671258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.645237480753419</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H11">
-        <v>8.645237480753419</v>
+        <v>2.250359</v>
       </c>
       <c r="I11">
-        <v>0.1274337030942934</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J11">
-        <v>0.1274337030942934</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.6110729568463</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N11">
-        <v>23.6110729568463</v>
+        <v>187.398952</v>
       </c>
       <c r="O11">
-        <v>0.2464251172170327</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P11">
-        <v>0.2464251172170327</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q11">
-        <v>204.1233328873311</v>
+        <v>46.85721313597422</v>
       </c>
       <c r="R11">
-        <v>204.1233328873311</v>
+        <v>421.714918223768</v>
       </c>
       <c r="S11">
-        <v>0.03140286522241181</v>
+        <v>0.006481374620254594</v>
       </c>
       <c r="T11">
-        <v>0.03140286522241181</v>
+        <v>0.006481374620254594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.645237480753419</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H12">
-        <v>8.645237480753419</v>
+        <v>2.250359</v>
       </c>
       <c r="I12">
-        <v>0.1274337030942934</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J12">
-        <v>0.1274337030942934</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>62.3020186493574</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N12">
-        <v>62.3020186493574</v>
+        <v>0.248801</v>
       </c>
       <c r="O12">
-        <v>0.6502365342136619</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P12">
-        <v>0.6502365342136619</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q12">
-        <v>538.6157467540231</v>
+        <v>0.06221017439544444</v>
       </c>
       <c r="R12">
-        <v>538.6157467540231</v>
+        <v>0.559891569559</v>
       </c>
       <c r="S12">
-        <v>0.08286204944204617</v>
+        <v>8.605024039269778E-06</v>
       </c>
       <c r="T12">
-        <v>0.08286204944204617</v>
+        <v>8.605024039269776E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.645237480753419</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H13">
-        <v>8.645237480753419</v>
+        <v>2.250359</v>
       </c>
       <c r="I13">
-        <v>0.1274337030942934</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J13">
-        <v>0.1274337030942934</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.90130111274728</v>
+        <v>14.948048</v>
       </c>
       <c r="N13">
-        <v>9.90130111274728</v>
+        <v>44.844144</v>
       </c>
       <c r="O13">
-        <v>0.1033383485693055</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P13">
-        <v>0.1033383485693055</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q13">
-        <v>85.59909948814833</v>
+        <v>11.21282478307733</v>
       </c>
       <c r="R13">
-        <v>85.59909948814833</v>
+        <v>100.915423047696</v>
       </c>
       <c r="S13">
-        <v>0.01316878842983548</v>
+        <v>0.00155097824020191</v>
       </c>
       <c r="T13">
-        <v>0.01316878842983548</v>
+        <v>0.00155097824020191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.90182033333333</v>
+      </c>
+      <c r="H14">
+        <v>35.705461</v>
+      </c>
+      <c r="I14">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="J14">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.68145933333333</v>
+      </c>
+      <c r="N14">
+        <v>71.04437799999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2340556429375698</v>
+      </c>
+      <c r="P14">
+        <v>0.2340556429375698</v>
+      </c>
+      <c r="Q14">
+        <v>281.8524742164731</v>
+      </c>
+      <c r="R14">
+        <v>2536.672267948258</v>
+      </c>
+      <c r="S14">
+        <v>0.0389863449143139</v>
+      </c>
+      <c r="T14">
+        <v>0.03898634491431389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.90182033333333</v>
+      </c>
+      <c r="H15">
+        <v>35.705461</v>
+      </c>
+      <c r="I15">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="J15">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>62.46631733333334</v>
+      </c>
+      <c r="N15">
+        <v>187.398952</v>
+      </c>
+      <c r="O15">
+        <v>0.6173856880862099</v>
+      </c>
+      <c r="P15">
+        <v>0.6173856880862097</v>
+      </c>
+      <c r="Q15">
+        <v>743.4628857863191</v>
+      </c>
+      <c r="R15">
+        <v>6691.165972076872</v>
+      </c>
+      <c r="S15">
+        <v>0.1028371334217741</v>
+      </c>
+      <c r="T15">
+        <v>0.1028371334217741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.90182033333333</v>
+      </c>
+      <c r="H16">
+        <v>35.705461</v>
+      </c>
+      <c r="I16">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="J16">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.08293366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.248801</v>
+      </c>
+      <c r="O16">
+        <v>0.0008196746830341778</v>
+      </c>
+      <c r="P16">
+        <v>0.0008196746830341776</v>
+      </c>
+      <c r="Q16">
+        <v>0.9870616002512222</v>
+      </c>
+      <c r="R16">
+        <v>8.883554402261</v>
+      </c>
+      <c r="S16">
+        <v>0.0001365321489763231</v>
+      </c>
+      <c r="T16">
+        <v>0.0001365321489763231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.90182033333333</v>
+      </c>
+      <c r="H17">
+        <v>35.705461</v>
+      </c>
+      <c r="I17">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="J17">
+        <v>0.166568703172488</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.948048</v>
+      </c>
+      <c r="N17">
+        <v>44.844144</v>
+      </c>
+      <c r="O17">
+        <v>0.1477389942931862</v>
+      </c>
+      <c r="P17">
+        <v>0.1477389942931862</v>
+      </c>
+      <c r="Q17">
+        <v>177.9089816300427</v>
+      </c>
+      <c r="R17">
+        <v>1601.180834670384</v>
+      </c>
+      <c r="S17">
+        <v>0.02460869268742363</v>
+      </c>
+      <c r="T17">
+        <v>0.02460869268742363</v>
       </c>
     </row>
   </sheetData>
